--- a/Complements/Analyse/ContraintesDataBase.xlsx
+++ b/Complements/Analyse/ContraintesDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChanterelleProject\ChanterelleProject\Complements\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91CB24-40F1-43E7-9F4C-022ADADA8511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D0795-EA6E-4125-889C-45E43E26129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4B6818D3-93BB-4931-B86B-8B2ECDAFD806}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="74">
   <si>
     <t>not null</t>
   </si>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798D3869-0003-41C7-A762-5C39671D70EB}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2076,9 @@
       <c r="D48" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Complements/Analyse/ContraintesDataBase.xlsx
+++ b/Complements/Analyse/ContraintesDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChanterelleProject\ChanterelleProject\Complements\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D0795-EA6E-4125-889C-45E43E26129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF24A6-2D1C-4230-A620-1A4DF67B1627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4B6818D3-93BB-4931-B86B-8B2ECDAFD806}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="74">
   <si>
     <t>not null</t>
   </si>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798D3869-0003-41C7-A762-5C39671D70EB}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,9 +1875,7 @@
       <c r="C38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="H38" s="22" t="s">

--- a/Complements/Analyse/ContraintesDataBase.xlsx
+++ b/Complements/Analyse/ContraintesDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChanterelleProject\ChanterelleProject\Complements\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF24A6-2D1C-4230-A620-1A4DF67B1627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C0DD7B-4991-4119-B562-F8F5F79CC907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4B6818D3-93BB-4931-B86B-8B2ECDAFD806}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
   <si>
     <t>not null</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>DateDebut</t>
-  </si>
-  <si>
-    <t>NomCreateur</t>
   </si>
   <si>
     <t>Objectif</t>
@@ -988,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798D3869-0003-41C7-A762-5C39671D70EB}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1030,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1048,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="23" t="s">
@@ -1064,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1099,7 +1096,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1128,7 +1125,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1157,7 +1154,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1166,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>0</v>
@@ -1178,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>0</v>
@@ -1192,13 +1189,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="1"/>
@@ -1212,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -1268,10 +1265,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>0</v>
@@ -1297,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>0</v>
@@ -1305,7 +1302,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="H12" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>19</v>
@@ -1314,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="10"/>
     </row>
@@ -1340,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" s="10"/>
     </row>
@@ -1362,7 +1359,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>0</v>
@@ -1399,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1423,19 +1420,19 @@
         <v>33</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>19</v>
@@ -1444,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="10"/>
       <c r="H18" s="11" t="s">
@@ -1503,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>11</v>
@@ -1520,10 +1517,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>0</v>
@@ -1534,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>0</v>
@@ -1547,7 +1544,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="13"/>
@@ -1560,7 +1557,7 @@
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" s="10"/>
     </row>
@@ -1575,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="11" t="s">
@@ -1601,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="10"/>
       <c r="H25" s="14" t="s">
@@ -1646,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>2</v>
@@ -1661,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1679,14 +1676,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="13"/>
       <c r="H29" s="11" t="s">
         <v>44</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>0</v>
@@ -1712,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="13"/>
@@ -1729,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="10"/>
       <c r="H31" s="22" t="s">
@@ -1742,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" s="10"/>
     </row>
@@ -1757,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -1781,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="H34" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
@@ -1816,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1838,7 +1835,7 @@
         <v>44</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>0</v>
@@ -1851,7 +1848,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>0</v>
@@ -1862,7 +1859,7 @@
         <v>40</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="13"/>
@@ -1873,7 +1870,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="13"/>
@@ -1888,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -1897,15 +1894,15 @@
         <v>45</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
       <c r="H39" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>19</v>
@@ -1914,39 +1911,41 @@
         <v>0</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="E41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="H41" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="7"/>
@@ -1954,172 +1953,158 @@
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>47</v>
+      <c r="B42" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="H42" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="H42" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10" t="s">
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="F43" s="10"/>
       <c r="H43" s="11" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="H44" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="H44" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10" t="s">
+      <c r="C47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="12" t="s">
+      <c r="C51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="12"/>
+      <c r="F51" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
